--- a/加权/input2.xlsx
+++ b/加权/input2.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\Python脚本\加权\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0488C64-C141-4A0B-9FB7-BDAE7CAF8DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798DDF-AB5A-44E6-BC82-1DF846D06281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1740" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$A$1:$D$4059</definedName>
@@ -13447,8 +13446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4059"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -83359,7 +83358,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4059" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -83369,8 +83367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2689B23-9AFF-4D11-9B1E-E0DF7C9ED2A7}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -84203,596 +84201,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1919:D1966"/>
-  <sheetViews>
-    <sheetView topLeftCell="A1914" workbookViewId="0">
-      <selection activeCell="B1919" sqref="B1919:D1966"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1919" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1919" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1919">
-        <v>0.08</v>
-      </c>
-      <c r="D1919" s="5">
-        <f t="shared" ref="D1919:D1966" si="0">B1919*C1919/4058*100</f>
-        <v>0.78068013799901426</v>
-      </c>
-    </row>
-    <row r="1920" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1920" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1920">
-        <v>0.27</v>
-      </c>
-      <c r="D1920" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6347954657466732</v>
-      </c>
-    </row>
-    <row r="1921" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1921" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1921">
-        <v>0.26</v>
-      </c>
-      <c r="D1921" s="5">
-        <f t="shared" si="0"/>
-        <v>2.537210448496797</v>
-      </c>
-    </row>
-    <row r="1922" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1922" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1922">
-        <v>0.24</v>
-      </c>
-      <c r="D1922" s="5">
-        <f t="shared" si="0"/>
-        <v>2.3420404139970428</v>
-      </c>
-    </row>
-    <row r="1923" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1923" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1923">
-        <v>0.08</v>
-      </c>
-      <c r="D1923" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78068013799901426</v>
-      </c>
-    </row>
-    <row r="1924" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1924" s="1">
-        <v>396</v>
-      </c>
-      <c r="C1924">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1924" s="5">
-        <f t="shared" si="0"/>
-        <v>0.68309512074913759</v>
-      </c>
-    </row>
-    <row r="1925" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1925" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1925">
-        <v>0.08</v>
-      </c>
-      <c r="D1925" s="5">
-        <f t="shared" si="0"/>
-        <v>0.80433711187777224</v>
-      </c>
-    </row>
-    <row r="1926" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1926" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1926">
-        <v>0.27</v>
-      </c>
-      <c r="D1926" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7146377525874819</v>
-      </c>
-    </row>
-    <row r="1927" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1927" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1927">
-        <v>0.26</v>
-      </c>
-      <c r="D1927" s="5">
-        <f t="shared" si="0"/>
-        <v>2.61409561360276</v>
-      </c>
-    </row>
-    <row r="1928" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1928" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1928">
-        <v>0.24</v>
-      </c>
-      <c r="D1928" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4130113356333172</v>
-      </c>
-    </row>
-    <row r="1929" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1929" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1929">
-        <v>0.08</v>
-      </c>
-      <c r="D1929" s="5">
-        <f t="shared" si="0"/>
-        <v>0.80433711187777224</v>
-      </c>
-    </row>
-    <row r="1930" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1930" s="1">
-        <v>408</v>
-      </c>
-      <c r="C1930">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1930" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70379497289305082</v>
-      </c>
-    </row>
-    <row r="1931" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1931" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1931">
-        <v>0.08</v>
-      </c>
-      <c r="D1931" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66042385411532778</v>
-      </c>
-    </row>
-    <row r="1932" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1932" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1932">
-        <v>0.27</v>
-      </c>
-      <c r="D1932" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2289305076392312</v>
-      </c>
-    </row>
-    <row r="1933" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1933" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1933">
-        <v>0.26</v>
-      </c>
-      <c r="D1933" s="5">
-        <f t="shared" si="0"/>
-        <v>2.146377525874815</v>
-      </c>
-    </row>
-    <row r="1934" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1934" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1934">
-        <v>0.24</v>
-      </c>
-      <c r="D1934" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9812715623459831</v>
-      </c>
-    </row>
-    <row r="1935" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1935" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1935">
-        <v>0.08</v>
-      </c>
-      <c r="D1935" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66042385411532778</v>
-      </c>
-    </row>
-    <row r="1936" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1936" s="1">
-        <v>335</v>
-      </c>
-      <c r="C1936">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1936" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57787087235091184</v>
-      </c>
-    </row>
-    <row r="1937" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1937" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1937">
-        <v>0.08</v>
-      </c>
-      <c r="D1937" s="5">
-        <f t="shared" si="0"/>
-        <v>0.95022178413011349</v>
-      </c>
-    </row>
-    <row r="1938" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1938" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1938">
-        <v>0.27</v>
-      </c>
-      <c r="D1938" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2069985214391328</v>
-      </c>
-    </row>
-    <row r="1939" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1939" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1939">
-        <v>0.26</v>
-      </c>
-      <c r="D1939" s="5">
-        <f t="shared" si="0"/>
-        <v>3.0882207984228685</v>
-      </c>
-    </row>
-    <row r="1940" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1940" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1940">
-        <v>0.24</v>
-      </c>
-      <c r="D1940" s="5">
-        <f t="shared" si="0"/>
-        <v>2.8506653523903398</v>
-      </c>
-    </row>
-    <row r="1941" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1941" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1941">
-        <v>0.08</v>
-      </c>
-      <c r="D1941" s="5">
-        <f t="shared" si="0"/>
-        <v>0.95022178413011349</v>
-      </c>
-    </row>
-    <row r="1942" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1942" s="1">
-        <v>482</v>
-      </c>
-      <c r="C1942">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1942" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83144406111384916</v>
-      </c>
-    </row>
-    <row r="1943" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1943" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1943">
-        <v>0.08</v>
-      </c>
-      <c r="D1943" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3405618531296204</v>
-      </c>
-    </row>
-    <row r="1944" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1944" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1944">
-        <v>0.27</v>
-      </c>
-      <c r="D1944" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5243962543124701</v>
-      </c>
-    </row>
-    <row r="1945" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1945" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1945">
-        <v>0.26</v>
-      </c>
-      <c r="D1945" s="5">
-        <f t="shared" si="0"/>
-        <v>4.3568260226712665</v>
-      </c>
-    </row>
-    <row r="1946" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1946" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1946">
-        <v>0.24</v>
-      </c>
-      <c r="D1946" s="5">
-        <f t="shared" si="0"/>
-        <v>4.0216855593888612</v>
-      </c>
-    </row>
-    <row r="1947" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1947" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1947">
-        <v>0.08</v>
-      </c>
-      <c r="D1947" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3405618531296204</v>
-      </c>
-    </row>
-    <row r="1948" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1948" s="1">
-        <v>680</v>
-      </c>
-      <c r="C1948">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1948" s="5">
-        <f t="shared" si="0"/>
-        <v>1.172991621488418</v>
-      </c>
-    </row>
-    <row r="1949" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1949">
-        <v>702</v>
-      </c>
-      <c r="C1949">
-        <v>0.08</v>
-      </c>
-      <c r="D1949" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3839329719073434</v>
-      </c>
-    </row>
-    <row r="1950" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1950">
-        <v>702</v>
-      </c>
-      <c r="C1950">
-        <v>0.27</v>
-      </c>
-      <c r="D1950" s="5">
-        <f t="shared" si="0"/>
-        <v>4.6707737801872851</v>
-      </c>
-    </row>
-    <row r="1951" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1951">
-        <v>702</v>
-      </c>
-      <c r="C1951">
-        <v>0.26</v>
-      </c>
-      <c r="D1951" s="5">
-        <f t="shared" si="0"/>
-        <v>4.4977821586988664</v>
-      </c>
-    </row>
-    <row r="1952" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1952">
-        <v>702</v>
-      </c>
-      <c r="C1952">
-        <v>0.24</v>
-      </c>
-      <c r="D1952" s="5">
-        <f t="shared" si="0"/>
-        <v>4.1517989157220301</v>
-      </c>
-    </row>
-    <row r="1953" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1953">
-        <v>702</v>
-      </c>
-      <c r="C1953">
-        <v>0.08</v>
-      </c>
-      <c r="D1953" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3839329719073434</v>
-      </c>
-    </row>
-    <row r="1954" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1954">
-        <v>702</v>
-      </c>
-      <c r="C1954">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1954" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2109413504189257</v>
-      </c>
-    </row>
-    <row r="1955" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1955">
-        <v>292</v>
-      </c>
-      <c r="C1955">
-        <v>0.08</v>
-      </c>
-      <c r="D1955" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57565303104977816</v>
-      </c>
-    </row>
-    <row r="1956" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1956">
-        <v>292</v>
-      </c>
-      <c r="C1956">
-        <v>0.27</v>
-      </c>
-      <c r="D1956" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9428289797930014</v>
-      </c>
-    </row>
-    <row r="1957" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1957">
-        <v>292</v>
-      </c>
-      <c r="C1957">
-        <v>0.26</v>
-      </c>
-      <c r="D1957" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8708723509117793</v>
-      </c>
-    </row>
-    <row r="1958" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1958">
-        <v>292</v>
-      </c>
-      <c r="C1958">
-        <v>0.24</v>
-      </c>
-      <c r="D1958" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7269590931493346</v>
-      </c>
-    </row>
-    <row r="1959" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1959">
-        <v>292</v>
-      </c>
-      <c r="C1959">
-        <v>0.08</v>
-      </c>
-      <c r="D1959" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57565303104977816</v>
-      </c>
-    </row>
-    <row r="1960" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1960">
-        <v>292</v>
-      </c>
-      <c r="C1960">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1960" s="5">
-        <f t="shared" si="0"/>
-        <v>0.50369640216855593</v>
-      </c>
-    </row>
-    <row r="1961" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1961">
-        <v>253</v>
-      </c>
-      <c r="C1961">
-        <v>0.08</v>
-      </c>
-      <c r="D1961" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49876786594381473</v>
-      </c>
-    </row>
-    <row r="1962" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1962">
-        <v>253</v>
-      </c>
-      <c r="C1962">
-        <v>0.27</v>
-      </c>
-      <c r="D1962" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6833415475603746</v>
-      </c>
-    </row>
-    <row r="1963" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1963">
-        <v>253</v>
-      </c>
-      <c r="C1963">
-        <v>0.26</v>
-      </c>
-      <c r="D1963" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6209955643173977</v>
-      </c>
-    </row>
-    <row r="1964" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1964">
-        <v>253</v>
-      </c>
-      <c r="C1964">
-        <v>0.24</v>
-      </c>
-      <c r="D1964" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4963035978314441</v>
-      </c>
-    </row>
-    <row r="1965" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1965">
-        <v>253</v>
-      </c>
-      <c r="C1965">
-        <v>0.08</v>
-      </c>
-      <c r="D1965" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49876786594381473</v>
-      </c>
-    </row>
-    <row r="1966" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1966">
-        <v>253</v>
-      </c>
-      <c r="C1966">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D1966" s="5">
-        <f t="shared" si="0"/>
-        <v>0.43642188270083787</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>